--- a/Work survey.xlsx
+++ b/Work survey.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack8\Desktop\ForEnglish\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack8\Desktop\Books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E862BFA-A566-4E65-B422-925C640515DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4587663-7DC2-4324-90A6-C2DE81604A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5856" yWindow="0" windowWidth="17280" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="可能的職缺" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>PHP 工程師</t>
   </si>
@@ -54,6 +55,145 @@
   </si>
   <si>
     <t>技術需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>軟體工程師（Software Engineer）:</t>
+  </si>
+  <si>
+    <t>語言：Java、C++、C#、Python等</t>
+  </si>
+  <si>
+    <t>開發框架：Spring、.NET等</t>
+  </si>
+  <si>
+    <t>系統工程師（Systems Engineer）:</t>
+  </si>
+  <si>
+    <t>作業系統：Linux、Windows Server</t>
+  </si>
+  <si>
+    <t>虛擬化技術：VMware、Hyper-V</t>
+  </si>
+  <si>
+    <t>網路技術：TCP/IP、Routing、Firewall</t>
+  </si>
+  <si>
+    <t>軟體開發工程師（Software Developer）:</t>
+  </si>
+  <si>
+    <t>前端開發：HTML、CSS、JavaScript、React、Angular</t>
+  </si>
+  <si>
+    <t>後端開發：Node.js、Express、Django、Flask</t>
+  </si>
+  <si>
+    <t>測試工程師（QA Engineer / Tester）:</t>
+  </si>
+  <si>
+    <t>測試框架：JUnit、Selenium、Appium</t>
+  </si>
+  <si>
+    <t>整合測試：Jenkins、Travis CI</t>
+  </si>
+  <si>
+    <t>測試管理工具：TestRail、Jira</t>
+  </si>
+  <si>
+    <t>資料庫管理員（Database Administrator）:</t>
+  </si>
+  <si>
+    <t>資料庫：MySQL、PostgreSQL、Oracle、MongoDB</t>
+  </si>
+  <si>
+    <t>資料庫管理工具：MySQL Workbench、pgAdmin、SQL Server Management Studio</t>
+  </si>
+  <si>
+    <t>網路工程師（Network Engineer）:</t>
+  </si>
+  <si>
+    <t>路由器與交換機配置：Cisco、Juniper</t>
+  </si>
+  <si>
+    <t>網路監控工具：Wireshark、Nagios</t>
+  </si>
+  <si>
+    <t>前端工程師（Frontend Developer）:</t>
+  </si>
+  <si>
+    <t>JavaScript框架：React、Vue.js、Angular</t>
+  </si>
+  <si>
+    <t>前端開發工具：Webpack、Babel</t>
+  </si>
+  <si>
+    <t>後端工程師（Backend Developer）:</t>
+  </si>
+  <si>
+    <t>語言：Java、Python、Node.js、Ruby</t>
+  </si>
+  <si>
+    <t>後端框架：Spring Boot、Flask、Express</t>
+  </si>
+  <si>
+    <t>全端工程師（Full Stack Developer）:</t>
+  </si>
+  <si>
+    <t>前端與後端技術的綜合應用</t>
+  </si>
+  <si>
+    <t>軟體架構師（Software Architect）:</t>
+  </si>
+  <si>
+    <t>設計原則：SOLID、設計模式</t>
+  </si>
+  <si>
+    <t>架構風格：微服務架構、RESTful API</t>
+  </si>
+  <si>
+    <t>專案經理（Project Manager）:</t>
+  </si>
+  <si>
+    <t>專案管理工具：Jira、Trello、Asana</t>
+  </si>
+  <si>
+    <t>敏捷方法論：Scrum、Kanban</t>
+  </si>
+  <si>
+    <t>數據工程師（Data Engineer）:</t>
+  </si>
+  <si>
+    <t>大數據技術：Hadoop、Spark</t>
+  </si>
+  <si>
+    <t>數據庫：BigQuery、Amazon Redshift</t>
+  </si>
+  <si>
+    <t>軟體測試自動化工程師（Automation Test Engineer）:</t>
+  </si>
+  <si>
+    <t>自動測試框架：Selenium、Appium、JUnit、TestNG</t>
+  </si>
+  <si>
+    <t>嵌入式系統工程師（Embedded Systems Engineer）:</t>
+  </si>
+  <si>
+    <t>微控制器：Arduino、Raspberry Pi</t>
+  </si>
+  <si>
+    <t>嵌入式操作系統：FreeRTOS、uC/OS</t>
+  </si>
+  <si>
+    <t>人工智慧工程師（AI Engineer）:</t>
+  </si>
+  <si>
+    <t>機器學習框架：TensorFlow、PyTorch</t>
+  </si>
+  <si>
+    <t>自然語言處理：NLTK、Spacy</t>
+  </si>
+  <si>
+    <t>https://roadmap.sh/frontend</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -61,7 +201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +223,14 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -101,15 +249,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -389,7 +540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -444,4 +595,253 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A3BD80-274F-47D6-9F38-7CEF61F5444B}">
+  <dimension ref="B2:C61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="C35" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="C42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="C45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="C46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="C49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="C50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="C53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="C56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="C57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="C60" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="C61" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C35" r:id="rId1" xr:uid="{DD27A87F-71A1-4539-ABF7-66AB69AC9C88}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>